--- a/de19.xlsx
+++ b/de19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gdrive\HATCOM_Chung chi tin hoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -337,6 +337,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281608</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>306455</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7528891" y="629478"/>
+          <a:ext cx="1250673" cy="1250673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -607,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/de19.xlsx
+++ b/de19.xlsx
@@ -242,16 +242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>298175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115781</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>20178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>50664</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111462</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -260,8 +260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5093805" y="2758110"/>
-          <a:ext cx="4878456" cy="1747630"/>
+          <a:off x="9154398" y="1367864"/>
+          <a:ext cx="5406692" cy="2209077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/de19.xlsx
+++ b/de19.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>cửa hàng bách hóa tổng hợp</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>số lượng</t>
+  </si>
+  <si>
+    <t>Bảng thống kê</t>
   </si>
 </sst>
 </file>
@@ -242,16 +245,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>115781</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>20178</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4318</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>50664</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111462</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182394</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -260,7 +263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9154398" y="1367864"/>
+          <a:off x="7218999" y="2979008"/>
           <a:ext cx="5406692" cy="2209077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -297,7 +300,27 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1. Tên</a:t>
+            <a:t>1. Định</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> nghĩa vùng dữ liệu cho cột "Số lượng" với tên "So_luong"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Đóng băng hàng tiêu đề</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tên</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -307,31 +330,31 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2. Tên nước: dựa vào mã nước tra trong bảng 2 lấy giá trị thích hợp</a:t>
+            <a:t>4. Tên nước: dựa vào mã nước tra trong bảng 2 lấy giá trị thích hợp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>3. đơn giá: dựa vào mã rượu tra trong bảng 1 lấy giá trị thích hợp</a:t>
+            <a:t>5. đơn giá: dựa vào mã rượu tra trong bảng 1 lấy giá trị thích hợp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>4. Thành tiền = số lượng*đơn giá. nếu mặt hàng "Martell v.S.O.P hoặc "Hennessy X.O" thì giảm 1% (Số lượng*Đơn giá)</a:t>
+            <a:t>6. Thành tiền = số lượng*đơn giá. nếu mặt hàng "Martell v.S.O.P hoặc "Hennessy X.O" thì giảm 1% (Số lượng*Đơn giá)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>5. Ghi chú: ghi "Tặng bộ ly kiểu" cho những mặt hàng "Hennessy X.O" có số lượng &gt;=20</a:t>
+            <a:t>7. Ghi chú: ghi "Tặng bộ ly kiểu" cho những mặt hàng "Hennessy X.O" có số lượng &gt;=20</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>7. Lập bảng thống kê</a:t>
+            <a:t>8. Lập bảng thống kê</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -651,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +908,10 @@
       <c r="C18" s="1">
         <v>380000</v>
       </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -916,9 +943,10 @@
       <c r="G21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
